--- a/data/news.xlsx
+++ b/data/news.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>communication/comm20221011.html</t>
+  </si>
+  <si>
+    <t>communication/comm20221216.html</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,6 +413,15 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>"16/12/2022"</f>
+        <v>16/12/2022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/news.xlsx
+++ b/data/news.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>communication/comm20221216.html</t>
+  </si>
+  <si>
+    <t>communication/comm20230717.html</t>
   </si>
 </sst>
 </file>
@@ -75,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +426,15 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f>"17/07/2023"</f>
+        <v>17/07/2023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/news.xlsx
+++ b/data/news.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>communication/comm20230717.html</t>
+  </si>
+  <si>
+    <t>communication/comm20231218.html</t>
   </si>
 </sst>
 </file>
@@ -361,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +438,15 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>"18/12/2023"</f>
+        <v>18/12/2023</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
